--- a/dataBase/automatonAncestry.xlsx
+++ b/dataBase/automatonAncestry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJEKTY\CODING\pythonProject\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813AB1C5-6403-463F-8719-DA948EB0E93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24288010-012F-4706-866B-D53DEF7CA748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="17880" windowHeight="20985" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="automatonAncestry" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
   <si>
     <t>Wspólny</t>
   </si>
@@ -480,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -488,16 +488,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -970,7 +964,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +974,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -991,7 +985,7 @@
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1007,7 +1001,7 @@
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1015,7 +1009,7 @@
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1023,7 +1017,7 @@
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1037,31 +1031,31 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="90.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C2" t="s">
@@ -1069,10 +1063,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
@@ -1080,90 +1074,93 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C14" t="s">
@@ -1171,10 +1168,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C15" t="s">
@@ -1182,34 +1179,34 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C19" t="s">
@@ -1217,10 +1214,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C20" t="s">
@@ -1228,10 +1225,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C21" t="s">
@@ -1249,7 +1246,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,18 +1256,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>3</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1278,31 +1275,31 @@
       <c r="A3" s="6">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1310,23 +1307,23 @@
       <c r="A7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1334,51 +1331,51 @@
       <c r="A10" s="5">
         <v>18</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
+      <c r="B22" s="13"/>
     </row>
     <row r="23" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="19"/>
+      <c r="B24" s="17"/>
     </row>
     <row r="25" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
+      <c r="B28" s="11"/>
     </row>
     <row r="29" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15"/>
+      <c r="B29" s="13"/>
     </row>
     <row r="30" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
+      <c r="B30" s="11"/>
     </row>
     <row r="31" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
+      <c r="B31" s="11"/>
     </row>
     <row r="32" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="13"/>
+      <c r="B32" s="11"/>
     </row>
     <row r="33" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
+      <c r="B33" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1391,174 +1388,174 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
+      <c r="A2" s="18">
         <v>3</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+      <c r="A3" s="18">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="12"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="12"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="12"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="12"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="11"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="11"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="D25" s="14"/>
+      <c r="B25" s="13"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
-      <c r="D26" s="14"/>
+      <c r="B26" s="13"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="13"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="11"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="D29" s="14"/>
+      <c r="B29" s="11"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="11"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
-      <c r="D31" s="17"/>
+      <c r="B31" s="11"/>
+      <c r="D31" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1571,28 +1568,28 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="64.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>3</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1600,7 +1597,7 @@
       <c r="A3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1608,7 +1605,7 @@
       <c r="A4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1616,7 +1613,7 @@
       <c r="A5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1624,7 +1621,7 @@
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1632,23 +1629,21 @@
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
-        <v>89</v>
-      </c>
+      <c r="B13" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1657,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A5E2F9-0AA5-4A58-B473-4820B5637D5F}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,105 +1664,113 @@
     <col min="2" max="2" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+    <row r="4" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+    <row r="5" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+    <row r="6" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="14"/>
-    </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="12"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="12"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="12"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="12"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="12"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataBase/automatonAncestry.xlsx
+++ b/dataBase/automatonAncestry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJEKTY\CODING\pythonProject\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24288010-012F-4706-866B-D53DEF7CA748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6660CE-3348-44F5-88FA-AA03C5A57691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38295" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="automatonAncestry" sheetId="1" r:id="rId1"/>
@@ -1030,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1C835C-BECA-4F8C-A233-A9EE9639DEEB}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1042,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,7 +1388,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1568,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A5E2F9-0AA5-4A58-B473-4820B5637D5F}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataBase/automatonAncestry.xlsx
+++ b/dataBase/automatonAncestry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJEKTY\CODING\pythonProject\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6660CE-3348-44F5-88FA-AA03C5A57691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E60842-C63C-441F-A79A-4CC6A00CE61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38295" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1655,7 +1655,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataBase/automatonAncestry.xlsx
+++ b/dataBase/automatonAncestry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJEKTY\CODING\pythonProject\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E60842-C63C-441F-A79A-4CC6A00CE61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B66A014-31AF-4E88-AF92-D8DB5E6894A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57495" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="automatonAncestry" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
   <si>
     <t>Wspólny</t>
   </si>
@@ -303,9 +303,6 @@
   <si>
     <t>Mały, człekopodobny automaton. Zmniejsz swój
 Rozmiar do 1/2. Masz około 120 centymetrów wzrostu i ważysz około 30 kilogramów.</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t>Człekopodobny automaton. Masz około 180 centymetrów wzrostu i ważysz około 150 kilogramów.</t>
@@ -1030,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1C835C-BECA-4F8C-A233-A9EE9639DEEB}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,9 +1100,6 @@
       </c>
       <c r="B7" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1595,7 +1589,7 @@
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>87</v>
@@ -1603,7 +1597,7 @@
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>88</v>
@@ -1611,10 +1605,10 @@
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1622,7 +1616,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1630,7 +1624,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1654,7 +1648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A5E2F9-0AA5-4A58-B473-4820B5637D5F}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -1674,18 +1668,18 @@
     </row>
     <row r="2" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1693,23 +1687,23 @@
         <v>25</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
